--- a/Mem-task.xlsx
+++ b/Mem-task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admins\Documents\BC58\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7183B2CD-46F2-4E02-B686-A95883C112DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3849DF51-1079-43D8-B944-EE427C06E9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EA4537B-328F-483D-A67B-C1722A1F4EE4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -53,33 +53,49 @@
     <t>BacktoTop</t>
   </si>
   <si>
-    <t>service</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Darkmode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Header, About, service</t>
-    </r>
-  </si>
-  <si>
-    <t>merge code</t>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Quỳnh</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Merge code</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Darkmode</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Blog Post</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Carousel</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Best section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number </t>
   </si>
 </sst>
 </file>
@@ -235,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -252,26 +268,17 @@
     <xf numFmtId="16" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,19 +594,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1936273-394C-4A12-8F58-4DE1309990F1}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="10.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,120 +622,294 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>45178</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45178</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45178</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>45190</v>
+      </c>
+      <c r="R2" s="8">
+        <v>1</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>45178</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45178</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45178</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>45190</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
+    <row r="4" spans="1:19" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="5">
         <v>45178</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45178</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45178</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>45190</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45178</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45190</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
-        <v>45178</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45190</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45178</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45190</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45190</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:19" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
-        <v>45178</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B7" s="5">
+        <v>45178</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
         <v>45190</v>
       </c>
-      <c r="C7" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="7"/>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mem-task.xlsx
+++ b/Mem-task.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admins\Documents\BC58\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admins\Documents\BC58\Bootstrap5\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3849DF51-1079-43D8-B944-EE427C06E9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B106FD5-EFF7-4C77-AFEE-46461BC4D81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EA4537B-328F-483D-A67B-C1722A1F4EE4}"/>
+    <workbookView xWindow="1092" yWindow="1596" windowWidth="19824" windowHeight="8964" xr2:uid="{7EA4537B-328F-483D-A67B-C1722A1F4EE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve">Number </t>
+  </si>
+  <si>
+    <t>Record Capstone</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,12 +175,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAEABAB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -251,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -276,9 +273,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,7 +591,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +791,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="5">
         <v>45190</v>
@@ -806,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -840,9 +834,23 @@
       <c r="L5" s="5">
         <v>45190</v>
       </c>
-      <c r="M5" s="9"/>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
       <c r="N5" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>45190</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">

--- a/Mem-task.xlsx
+++ b/Mem-task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admins\Documents\BC58\Bootstrap5\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B106FD5-EFF7-4C77-AFEE-46461BC4D81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D6A597-8E8D-4F8D-8865-6B5780C8C50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1092" yWindow="1596" windowWidth="19824" windowHeight="8964" xr2:uid="{7EA4537B-328F-483D-A67B-C1722A1F4EE4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Record Capstone</t>
+  </si>
+  <si>
+    <t>Upload internet</t>
   </si>
 </sst>
 </file>
@@ -588,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1936273-394C-4A12-8F58-4DE1309990F1}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,15 +910,29 @@
     </row>
     <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45178</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="5">
         <v>45190</v>
       </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Mem-task.xlsx
+++ b/Mem-task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admins\Documents\BC58\Bootstrap5\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D6A597-8E8D-4F8D-8865-6B5780C8C50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE666324-8633-4957-A073-B1AB2C0EEC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1092" yWindow="1596" windowWidth="19824" windowHeight="8964" xr2:uid="{7EA4537B-328F-483D-A67B-C1722A1F4EE4}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +797,7 @@
         <v>23</v>
       </c>
       <c r="Q4" s="5">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="R4" s="8">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="5">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="R5" s="8">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="5">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="H6" s="8">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="5">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="M6" s="8">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="5">
-        <v>45178</v>
+        <v>45192</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>

--- a/Mem-task.xlsx
+++ b/Mem-task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admins\Documents\BC58\Bootstrap5\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE666324-8633-4957-A073-B1AB2C0EEC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36390910-BD9B-4D26-8B34-C5537FA9FDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1092" yWindow="1596" windowWidth="19824" windowHeight="8964" xr2:uid="{7EA4537B-328F-483D-A67B-C1722A1F4EE4}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
